--- a/src/Akeneo/ReferenceEntity/tests/back/Common/Resources/import_valid_records.xlsx
+++ b/src/Akeneo/ReferenceEntity/tests/back/Common/Resources/import_valid_records.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t xml:space="preserve">referenceEntityIdentifier</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ikea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test with numeric values</t>
   </si>
 </sst>
 </file>
@@ -94,6 +97,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -153,8 +157,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -175,10 +183,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -188,8 +196,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="46.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
@@ -265,6 +273,31 @@
       <c r="G3" s="0" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
